--- a/app_trader_results.xlsx
+++ b/app_trader_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\NSS\Projects\app-trader-super-sums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B989E-2250-41F1-AB39-E5C436469F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985FCE1B-1BF8-4701-81FD-3CDD1087A68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="7" xr2:uid="{AC058B9C-B821-4F7B-988D-225260B83DE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" firstSheet="2" activeTab="7" xr2:uid="{AC058B9C-B821-4F7B-988D-225260B83DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="app query results" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="top 10" sheetId="14" r:id="rId4"/>
     <sheet name="traffic chart 1" sheetId="15" r:id="rId5"/>
     <sheet name="traffic chart 2" sheetId="6" r:id="rId6"/>
-    <sheet name="traffic chart 3" sheetId="7" r:id="rId7"/>
+    <sheet name="traffic chart 3" sheetId="16" r:id="rId7"/>
     <sheet name="traffic dashboard" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -29,7 +29,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="26" r:id="rId9"/>
-    <pivotCache cacheId="29" r:id="rId10"/>
+    <pivotCache cacheId="37" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="416">
   <si>
     <t>name</t>
   </si>
@@ -1292,15 +1292,22 @@
   </si>
   <si>
     <t>Correlation: Price of App and net price:</t>
+  </si>
+  <si>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>Sum of traffic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1534,7 +1541,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1584,12 +1590,25 @@
     <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1817,7 +1836,7 @@
             <c:numRef>
               <c:f>'traffic chart 1'!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1965238</c:v>
@@ -1943,7 +1962,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2538,48 +2557,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[app_trader_results.xlsx]traffic chart 3!PivotTable3</c:name>
-    <c:fmtId val="7"/>
+    <c:name>[app_trader_results.xlsx]traffic chart 3!PivotTable12</c:name>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Top 3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> with most traffic</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44527777777777783"/>
-          <c:y val="0.11934966462525518"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2679,7 +2661,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'traffic chart 3'!$B$1</c:f>
+              <c:f>'traffic chart 3'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2735,7 +2717,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'traffic chart 3'!$A$2:$A$5</c:f>
+              <c:f>'traffic chart 3'!$Q$2:$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2752,25 +2734,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'traffic chart 3'!$B$2:$B$5</c:f>
+              <c:f>'traffic chart 3'!$R$2:$R$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1291559</c:v>
+                  <c:v>11291559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1590317</c:v>
+                  <c:v>11590317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1965238</c:v>
+                  <c:v>51965238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F0D2-4188-89AF-AF87F1B974AB}"/>
+              <c16:uniqueId val="{00000000-04D4-45E7-8B83-DE49A9CCDFB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2872,6 +2854,7 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2884,880 +2867,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[app_trader_results.xlsx]traffic chart 3!PivotTable3</c:name>
-    <c:fmtId val="11"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Top 3 with most traffic</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31194444444444447"/>
-          <c:y val="6.8423738699329245E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c15:spPr>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.19584131671041119"/>
-              <c:y val="6.1525590551181106E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.12963812335958005"/>
-              <c:y val="-0.1911111111111112"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c15:spPr>
-              <c15:layout>
-                <c:manualLayout>
-                  <c:w val="0.16915288713910759"/>
-                  <c:h val="0.13412037037037036"/>
-                </c:manualLayout>
-              </c15:layout>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="0.15146675415573052"/>
-              <c:y val="7.0253718285214345E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c15:spPr>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.14532370953630797"/>
-              <c:y val="0.16618839311752698"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c15:spPr>
-              <c15:layout>
-                <c:manualLayout>
-                  <c:w val="0.14912489063867015"/>
-                  <c:h val="0.11560185185185186"/>
-                </c:manualLayout>
-              </c15:layout>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'traffic chart 3'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9A85-4E88-A3D4-81322A7A0677}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9A85-4E88-A3D4-81322A7A0677}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9A85-4E88-A3D4-81322A7A0677}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.14532370953630797"/>
-                  <c:y val="0.16618839311752698"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.14912489063867015"/>
-                      <c:h val="0.11560185185185186"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-9A85-4E88-A3D4-81322A7A0677}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12963812335958005"/>
-                  <c:y val="-0.1911111111111112"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.16915288713910759"/>
-                      <c:h val="0.13412037037037036"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9A85-4E88-A3D4-81322A7A0677}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15146675415573052"/>
-                  <c:y val="7.0253718285214345E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9A85-4E88-A3D4-81322A7A0677}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'traffic chart 3'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Domino's Pizza USA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PewDiePie's Tuber Simulator</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Toy Blast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'traffic chart 3'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1291559</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1590317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1965238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9A85-4E88-A3D4-81322A7A0677}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4317,7 +3426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4637,7 +3746,7 @@
             <c:numRef>
               <c:f>'traffic chart 1'!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1965238</c:v>
@@ -4763,7 +3872,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4806,37 +3915,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4883,6 +3961,731 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[app_trader_results.xlsx]traffic chart 3!PivotTable12</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Overall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Traffic</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.15594171041119859"/>
+              <c:y val="3.0552639253426654E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.1413751093613298"/>
+                  <c:h val="0.11560185185185186"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.13212237532808399"/>
+              <c:y val="-0.14543124817731118"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'traffic chart 3'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DB8D-4EC5-AF3D-1014BB541D5D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DB8D-4EC5-AF3D-1014BB541D5D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DB8D-4EC5-AF3D-1014BB541D5D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15594171041119859"/>
+                  <c:y val="3.0552639253426654E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.1413751093613298"/>
+                      <c:h val="0.11560185185185186"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DB8D-4EC5-AF3D-1014BB541D5D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13212237532808399"/>
+                  <c:y val="-0.14543124817731118"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DB8D-4EC5-AF3D-1014BB541D5D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'traffic chart 3'!$Q$2:$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Domino's Pizza USA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PewDiePie's Tuber Simulator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Toy Blast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'traffic chart 3'!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11291559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11590317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51965238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DB8D-4EC5-AF3D-1014BB541D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
@@ -6662,7 +6465,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6719,7 +6522,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6770,13 +6573,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6787,19 +6583,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6837,7 +6626,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6880,23 +6669,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7001,8 +6789,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7134,20 +6922,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7684,7 +7471,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7741,7 +7528,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7792,6 +7579,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7802,12 +7596,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7845,7 +7646,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7888,22 +7689,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8008,8 +7810,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8141,19 +7943,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8272,23 +8075,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A01AA2D-8B99-4361-ADCB-D67CF4328ECC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC0AAD8-67C0-43D6-BF4A-18EA84C95A17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8311,44 +8114,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7D7AF7-7CEB-4FC8-8F6F-14139866EF43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -8381,7 +8146,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8406,6 +8171,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89394297-BB02-40BD-BC89-E5148ADE9533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8A4EA5-10B4-4EA6-8C64-7E3C32BDAF63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8495,37 +8298,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nathan Martin" refreshedDate="44621.87204490741" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="10" xr:uid="{D8523C3C-8BD2-453E-ACFF-CE52E03CCD49}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nathan Martin" refreshedDate="44622.692477662036" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="3" xr:uid="{ECA924C5-B104-46DD-A908-1D3557058D66}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K11" sheet="top 10"/>
+    <worksheetSource ref="A1:N4" sheet="traffic chart 3"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="14">
     <cacheField name="name" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="3">
         <s v="PewDiePie's Tuber Simulator"/>
-        <s v="Fernanfloo"/>
         <s v="Domino's Pizza USA"/>
-        <s v="Egg, Inc."/>
-        <s v="ASOS"/>
-        <s v="The Guardian"/>
-        <s v="Deck Heroes: Legacy"/>
-        <s v="Zombie Catchers"/>
         <s v="Toy Blast"/>
-        <s v="Geometry Dash World"/>
-        <s v="MARVEL Future Fight" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="total_reviews" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="191535.5" maxValue="1965238"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1291559" maxValue="1965238"/>
     </cacheField>
     <cacheField name="weighted_avg_rating" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5993318060000004" maxValue="4.8114255210000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.6922836830000003" maxValue="4.8114255210000003"/>
     </cacheField>
     <cacheField name="a_price" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="a_content_rating" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="17"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="9"/>
     </cacheField>
     <cacheField name="p_content_rating" numFmtId="0">
       <sharedItems/>
@@ -8537,13 +8332,22 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="install_count_num" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000000" maxValue="50000000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000000" maxValue="50000000"/>
     </cacheField>
     <cacheField name="Longevity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.199999999999999" maxValue="10.62"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.38" maxValue="10.62"/>
     </cacheField>
     <cacheField name="Expected Revenue" numFmtId="170">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="183575.95" maxValue="191211.32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="186922.21" maxValue="191211.32"/>
+    </cacheField>
+    <cacheField name="Purchase Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="Net" numFmtId="170">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="176922.21" maxValue="181211.32"/>
+    </cacheField>
+    <cacheField name="traffic" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11291559" maxValue="51965238"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -8710,7 +8514,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
   <r>
     <x v="0"/>
     <n v="1590317"/>
@@ -8723,22 +8527,12 @@
     <n v="10000000"/>
     <n v="10.62"/>
     <n v="191211.32"/>
+    <n v="10000"/>
+    <n v="181211.32"/>
+    <n v="11590317"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="529481"/>
-    <n v="4.7983648140000001"/>
-    <n v="0"/>
-    <n v="9"/>
-    <s v="Everyone 10+"/>
-    <s v="Games"/>
-    <s v="Arcade"/>
-    <n v="10000000"/>
-    <n v="10.6"/>
-    <n v="190741.13"/>
-  </r>
-  <r>
-    <x v="2"/>
     <n v="1291559"/>
     <n v="4.7600725170000002"/>
     <n v="0"/>
@@ -8749,74 +8543,12 @@
     <n v="10000000"/>
     <n v="10.52"/>
     <n v="189362.61"/>
+    <n v="10000"/>
+    <n v="179362.61"/>
+    <n v="11291559"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="659234"/>
-    <n v="4.735984491"/>
-    <n v="0"/>
-    <n v="4"/>
-    <s v="Everyone"/>
-    <s v="Games"/>
-    <s v="Simulation"/>
-    <n v="5000000"/>
-    <n v="10.47"/>
-    <n v="188495.44"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="191535.5"/>
-    <n v="4.7152321629999996"/>
-    <n v="0"/>
-    <n v="4"/>
-    <s v="Everyone"/>
-    <s v="Shopping"/>
-    <s v="Shopping"/>
-    <n v="10000000"/>
-    <n v="10.43"/>
-    <n v="187748.36"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="256168"/>
-    <n v="4.7095749659999999"/>
-    <n v="0"/>
-    <n v="12"/>
-    <s v="Teen"/>
-    <s v="News"/>
-    <s v="News &amp; Magazines"/>
-    <n v="5000000"/>
-    <n v="10.42"/>
-    <n v="187544.7"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="466989"/>
-    <n v="4.6992595110000002"/>
-    <n v="0"/>
-    <n v="17"/>
-    <s v="Teen"/>
-    <s v="Games"/>
-    <s v="Card"/>
-    <n v="10000000"/>
-    <n v="10.4"/>
-    <n v="187173.34"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1007207.833"/>
-    <n v="4.6966630519999999"/>
-    <n v="0"/>
-    <n v="12"/>
-    <s v="Everyone"/>
-    <s v="Games"/>
-    <s v="Action"/>
-    <n v="10000000"/>
-    <n v="10.39"/>
-    <n v="187079.87"/>
-  </r>
-  <r>
-    <x v="8"/>
+    <x v="2"/>
     <n v="1965238"/>
     <n v="4.6922836830000003"/>
     <n v="0"/>
@@ -8827,19 +8559,9 @@
     <n v="50000000"/>
     <n v="10.38"/>
     <n v="186922.21"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="765347"/>
-    <n v="4.5993318060000004"/>
-    <n v="0"/>
-    <n v="4"/>
-    <s v="Everyone"/>
-    <s v="Games"/>
-    <s v="Arcade"/>
-    <n v="10000000"/>
-    <n v="10.199999999999999"/>
-    <n v="183575.95"/>
+    <n v="10000"/>
+    <n v="176922.21"/>
+    <n v="51965238"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8928,8 +8650,16 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of total_reviews" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total_reviews" fld="1" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -9049,10 +8779,10 @@
     <dataField name="Sum of install_count_num" fld="8" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9089,48 +8819,43 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54A284A5-0128-4918-85FA-6C706DF49F23}" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="12">
-        <item x="4"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FB179AF-3565-4153-9967-C95B414F33FD}" name="PivotTable12" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="Q1:R5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="170" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="170" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
+      <x/>
+    </i>
+    <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -9140,10 +8865,18 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of total_reviews" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of traffic" fld="13" baseField="0" baseItem="0" numFmtId="173"/>
   </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="7" format="0" series="1">
+  <formats count="2">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9152,7 +8885,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="11" format="5" series="1">
+    <chartFormat chart="3" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9161,43 +8894,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="11" format="6">
+    <chartFormat chart="3" format="6">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="5"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="11" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="9">
+    <chartFormat chart="3" format="7">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9209,17 +8918,20 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="3" filterVal="3"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -21787,7 +21499,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21799,48 +21511,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
-      <c r="P1" s="53"/>
+      <c r="P1" s="52"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
@@ -21853,48 +21565,48 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="64.5" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="40">
         <v>1590317</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>4.8114255210000003</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="40">
         <v>0</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="40">
         <v>10000000</v>
       </c>
       <c r="J2" s="29">
         <v>10.62</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="43">
         <v>191211.32</v>
       </c>
       <c r="L2" s="20">
         <v>10000</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M2" s="43">
         <v>181211.32</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
-      <c r="P2" s="53"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
@@ -21907,48 +21619,48 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>529481</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>4.7983648140000001</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>9</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="46">
         <v>10000000</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="48">
         <v>10.6</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="51">
         <v>190741.13</v>
       </c>
-      <c r="L3" s="50">
-        <v>10000</v>
-      </c>
-      <c r="M3" s="52">
+      <c r="L3" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="51">
         <v>180741.13</v>
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
-      <c r="P3" s="53"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
@@ -21961,50 +21673,50 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" ht="39" thickBot="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>1291559</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>4.7600725170000002</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>4</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="40">
         <v>10000000</v>
       </c>
       <c r="J4" s="29">
         <v>10.52</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="43">
         <v>189362.61</v>
       </c>
       <c r="L4" s="20">
         <v>10000</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="43">
         <v>179362.61</v>
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="53">
         <v>156090.79</v>
       </c>
       <c r="Q4" s="24"/>
@@ -22019,48 +21731,48 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>659234</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="46">
         <v>4.735984491</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>0</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="46">
         <v>5000000</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>10.47</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="51">
         <v>188495.44</v>
       </c>
-      <c r="L5" s="50">
-        <v>10000</v>
-      </c>
-      <c r="M5" s="52">
+      <c r="L5" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="51">
         <v>178495.44</v>
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
-      <c r="P5" s="53"/>
+      <c r="P5" s="52"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -22073,50 +21785,50 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>191535.5</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>4.7152321629999996</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <v>0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>4</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>10000000</v>
       </c>
       <c r="J6" s="29">
         <v>10.43</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <v>187748.36</v>
       </c>
       <c r="L6" s="20">
         <v>10000</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="43">
         <v>177748.36</v>
       </c>
       <c r="N6" s="24"/>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="P6" s="53"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="32">
         <v>-0.81791211490000004</v>
@@ -22131,48 +21843,48 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="39" thickBot="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>256168</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <v>4.7095749659999999</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>0</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>12</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="46">
         <v>5000000</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="48">
         <v>10.42</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="51">
         <v>187544.7</v>
       </c>
-      <c r="L7" s="50">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="52">
+      <c r="L7" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="51">
         <v>177544.7</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="53"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
@@ -22185,50 +21897,50 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="39" thickBot="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>466989</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>4.6992595110000002</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>0</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>17</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>10000000</v>
       </c>
       <c r="J8" s="29">
         <v>10.4</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="43">
         <v>187173.34</v>
       </c>
       <c r="L8" s="20">
         <v>10000</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="43">
         <v>177173.34</v>
       </c>
       <c r="N8" s="24"/>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="P8" s="53"/>
+      <c r="P8" s="52"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="32">
         <v>0.4797977471</v>
@@ -22243,48 +21955,48 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>1007207.833</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <v>4.6966630519999999</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>0</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>12</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="46">
         <v>10000000</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>10.39</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <v>187079.87</v>
       </c>
-      <c r="L9" s="50">
-        <v>10000</v>
-      </c>
-      <c r="M9" s="52">
+      <c r="L9" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M9" s="51">
         <v>177079.87</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="53"/>
+      <c r="P9" s="52"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
@@ -22297,48 +22009,48 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>1965238</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>4.6922836830000003</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>0</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>4</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <v>50000000</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="48">
         <v>10.38</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="51">
         <v>186922.21</v>
       </c>
-      <c r="L10" s="50">
-        <v>10000</v>
-      </c>
-      <c r="M10" s="52">
+      <c r="L10" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="51">
         <v>176922.21</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="52"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -22351,48 +22063,48 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="39" thickBot="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>765347</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>4.5993318060000004</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>0</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>4</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <v>10000000</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="48">
         <v>10.199999999999999</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <v>183575.95</v>
       </c>
-      <c r="L11" s="50">
-        <v>10000</v>
-      </c>
-      <c r="M11" s="52">
+      <c r="L11" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="51">
         <v>173575.95</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="53"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
@@ -22414,108 +22126,108 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="7">
         <v>1965238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="7">
         <v>1590317</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="7">
         <v>1291559</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="7">
         <v>1007207.833</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="7">
         <v>765347</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="7">
         <v>659234</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="7">
         <v>529481</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="7">
         <v>466989</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="7">
         <v>256168</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="7">
         <v>191535.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="7">
         <v>8723076.3330000006</v>
       </c>
     </row>
@@ -22530,7 +22242,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8912D879-D597-447C-B272-FA79CD7F4943}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="4" max="11" activeRow="5" previousRow="5" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22539,7 +22262,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>407</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -22547,7 +22270,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="7">
@@ -22555,7 +22278,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>233</v>
       </c>
       <c r="B3" s="7">
@@ -22563,7 +22286,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7">
@@ -22571,7 +22294,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="7">
@@ -22579,7 +22302,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="7">
@@ -22587,7 +22310,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="7">
@@ -22595,7 +22318,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7">
@@ -22603,7 +22326,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="7">
@@ -22611,7 +22334,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7">
@@ -22619,7 +22342,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="7">
@@ -22627,7 +22350,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>408</v>
       </c>
       <c r="B12" s="7">
@@ -22642,62 +22365,237 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EAC3AB-2A44-49F7-8996-2A0F193BAA6B}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E016688-3E0D-4543-85A7-E937CE52357B}">
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:18" ht="39" thickBot="1">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="B1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="R1" s="54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="64.5" thickBot="1">
       <c r="A2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1590317</v>
+      </c>
+      <c r="C2" s="40">
+        <v>4.8114255210000003</v>
+      </c>
+      <c r="D2" s="40">
+        <v>0</v>
+      </c>
+      <c r="E2" s="40">
+        <v>9</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="40">
+        <v>10000000</v>
+      </c>
+      <c r="J2" s="29">
+        <v>10.62</v>
+      </c>
+      <c r="K2" s="43">
+        <v>191211.32</v>
+      </c>
+      <c r="L2" s="20">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="43">
+        <v>181211.32</v>
+      </c>
+      <c r="N2" s="7">
+        <f>B2+I2</f>
+        <v>11590317</v>
+      </c>
+      <c r="Q2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="37">
+      <c r="R2" s="54">
+        <v>11291559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="39" thickBot="1">
+      <c r="A3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="40">
         <v>1291559</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="C3" s="40">
+        <v>4.7600725170000002</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <v>4</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="40">
+        <v>10000000</v>
+      </c>
+      <c r="J3" s="29">
+        <v>10.52</v>
+      </c>
+      <c r="K3" s="43">
+        <v>189362.61</v>
+      </c>
+      <c r="L3" s="20">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="43">
+        <v>179362.61</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N4" si="0">B3+I3</f>
+        <v>11291559</v>
+      </c>
+      <c r="Q3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37">
-        <v>1590317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="R3" s="54">
+        <v>11590317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="26.25" thickBot="1">
       <c r="A4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="46">
         <v>1965238</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="C4" s="46">
+        <v>4.6922836830000003</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46">
+        <v>4</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="46">
+        <v>50000000</v>
+      </c>
+      <c r="J4" s="48">
+        <v>10.38</v>
+      </c>
+      <c r="K4" s="51">
+        <v>186922.21</v>
+      </c>
+      <c r="L4" s="49">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="51">
+        <v>176922.21</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
+        <v>51965238</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="54">
+        <v>51965238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="Q5" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="37">
-        <v>4847114</v>
+      <c r="R5" s="54">
+        <v>74847114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -22706,7 +22604,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
